--- a/Excel/Day_3/Textual Functions.xlsx
+++ b/Excel/Day_3/Textual Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS_Professionals\Excel\Day_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1287C80B-C915-44B1-8C6D-BD98DCA0BFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58894861-7410-4DDB-9725-235125AB464C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Example</t>
   </si>
@@ -347,6 +347,65 @@
   <si>
     <t xml:space="preserve">     Student      1       </t>
   </si>
+  <si>
+    <t>Ampersand</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>String/Text</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Upadhayay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           abhishek                upadhayay                                 </t>
+  </si>
+  <si>
+    <t>abhishek upadhayay</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1994</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abhishek</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B-</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +414,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +546,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +585,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -710,63 +791,63 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,6 +887,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1666,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G2" zoomScale="144" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" topLeftCell="C2" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1685,15 +1771,15 @@
     <col min="11" max="11" width="12.1796875" customWidth="1"/>
     <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.7265625" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1701,24 +1787,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1727,13 +1813,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1752,11 +1838,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1775,11 +1861,11 @@
       <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="L6" s="25" t="s">
         <v>39</v>
       </c>
@@ -1794,11 +1880,11 @@
       <c r="P6" s="55"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="L7" s="25" t="s">
         <v>40</v>
       </c>
@@ -1813,37 +1899,43 @@
       <c r="P7" s="55"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -1854,67 +1946,72 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
@@ -1925,11 +2022,6 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1940,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F2" zoomScale="81" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1975,24 +2067,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2141,6 +2233,9 @@
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="13"/>
@@ -2153,13 +2248,13 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
       <c r="K14" s="23" t="s">
         <v>1</v>
       </c>
@@ -2175,11 +2270,11 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="K15" s="29" t="s">
         <v>41</v>
       </c>
@@ -2195,11 +2290,11 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="K16" s="29" t="s">
         <v>42</v>
       </c>
@@ -2214,11 +2309,11 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="K17" s="29" t="s">
         <v>43</v>
       </c>
@@ -2233,11 +2328,11 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="K18" s="29" t="s">
         <v>44</v>
       </c>
@@ -2252,11 +2347,11 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="K19" s="29" t="s">
         <v>45</v>
       </c>
@@ -2271,18 +2366,18 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2306,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" topLeftCell="G4" zoomScale="113" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2342,23 +2437,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
+      <c r="L1" s="53"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2502,67 +2597,72 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:R9"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
@@ -2579,11 +2679,6 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2594,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F2" zoomScale="147" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="108" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2611,7 +2706,7 @@
     <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
     <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
     <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -2629,23 +2724,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2792,70 +2887,89 @@
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
+      <c r="K12" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="13"/>
+      <c r="K13" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="L15" s="30" t="str">
+        <f>CONCATENATE(L13," ",M13)</f>
+        <v>Abhishek Upadhayay</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2878,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="130" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M9"/>
+    <sheetView showGridLines="0" zoomScale="88" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2914,24 +3028,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2976,6 +3090,10 @@
         <f>LEN(L5)</f>
         <v>9</v>
       </c>
+      <c r="N5">
+        <f>LEN(L5)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="59"/>
@@ -3057,64 +3175,64 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K22" s="27"/>
@@ -3160,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H3" zoomScale="147" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H8" zoomScale="127" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3196,24 +3314,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -3274,8 +3392,8 @@
         <v>abcde</v>
       </c>
       <c r="O6" s="33" t="str">
-        <f>RIGHT(L6,3)</f>
-        <v>e43</v>
+        <f>RIGHT(L6,2)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3398,64 +3516,79 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
+      <c r="L15" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="27" t="str">
+        <f>LEFT(L15,4)</f>
+        <v>1994</v>
+      </c>
+      <c r="N15" s="27" t="str">
+        <f>MID(L15,5,8)</f>
+        <v>Abhishek</v>
+      </c>
+      <c r="O15" s="27" t="str">
+        <f>RIGHT(L15,2)</f>
+        <v>B-</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
       <c r="M21" s="22"/>
     </row>
   </sheetData>
